--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,33 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Library/CloudStorage/OneDrive-MMU/Documents/DeepLearning/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2B117A-2126-FA40-89F3-631E9B4FF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B0C0C-3031-3343-BF09-60F5380436DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3B568B3D-36D4-AF4C-BF1C-FF21CB73DF89}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" activeTab="5" xr2:uid="{3B568B3D-36D4-AF4C-BF1C-FF21CB73DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Best Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Batch Size Optimisation" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Loss Function" sheetId="4" r:id="rId4"/>
-    <sheet name="Learning Rate Experiment" sheetId="7" r:id="rId5"/>
-    <sheet name="Learning Rate Optimisation" sheetId="2" r:id="rId6"/>
-    <sheet name="DeepLabV3" sheetId="5" r:id="rId7"/>
+    <sheet name="Best Models Test Split" sheetId="8" r:id="rId2"/>
+    <sheet name="SGD vs Adam" sheetId="9" r:id="rId3"/>
+    <sheet name="Deep Lab vs UNet" sheetId="10" r:id="rId4"/>
+    <sheet name="Batch Size Optimisation" sheetId="3" r:id="rId5"/>
+    <sheet name="Loss Function" sheetId="4" r:id="rId6"/>
+    <sheet name="Learning Rate Experiment" sheetId="7" r:id="rId7"/>
+    <sheet name="Learning Rate Optimisation" sheetId="2" r:id="rId8"/>
+    <sheet name="DeepLabV3" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Batch Size Optimisation'!$A$3:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Best Models'!$A$3:$L$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Learning Rate Optimisation'!$A$16:$J$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Loss Function'!$A$3:$I$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet6!$A$1:$E$38</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Learning Rate Experiment'!$B$45</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Learning Rate Experiment'!$B$46:$B$110</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Learning Rate Experiment'!$D$45</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Learning Rate Experiment'!$D$46:$D$110</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Learning Rate Experiment'!$B$45</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Learning Rate Experiment'!$B$46:$B$110</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Learning Rate Experiment'!$D$45</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Learning Rate Experiment'!$D$46:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Batch Size Optimisation'!$A$3:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Best Models'!$A$3:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Learning Rate Optimisation'!$A$16:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Loss Function'!$A$3:$I$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="62">
   <si>
     <t>DFU Segmentation Best Models</t>
   </si>
@@ -214,15 +207,46 @@
   <si>
     <t>Probability</t>
   </si>
+  <si>
+    <t>Best Models</t>
+  </si>
+  <si>
+    <t>Top 6 Without Elastic Transform</t>
+  </si>
+  <si>
+    <t>None - Baseline</t>
+  </si>
+  <si>
+    <t>Best Models Validation</t>
+  </si>
+  <si>
+    <t>Test IOU</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>1400-400-200 split</t>
+  </si>
+  <si>
+    <t>SGD vs Adam Model Selection</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Deep Lab vs U-Net</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +272,14 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -260,6 +292,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,13 +326,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,39 +973,90 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Learning Rate Experiment'!$B$33:$B$42</c:f>
+              <c:f>'Learning Rate Experiment'!$B$33:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.92067653000000005</c:v>
+                  <c:v>0.80772274732589699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89503509000000003</c:v>
+                  <c:v>0.58550250530242898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88557655000000002</c:v>
+                  <c:v>0.40742754936218201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87737644000000004</c:v>
+                  <c:v>0.29339370131492598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86807394000000004</c:v>
+                  <c:v>0.230894654989242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86180937000000002</c:v>
+                  <c:v>0.19421347975730799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85162680999999996</c:v>
+                  <c:v>0.16783811151981301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84060447999999999</c:v>
+                  <c:v>0.149433508515357</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83225989</c:v>
+                  <c:v>0.13771973550319599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81918073000000002</c:v>
+                  <c:v>0.12534362077712999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11440472304821001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11189812421798701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.103364005684852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.100266233086586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0931378304958302E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7676353752612998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5007444024085999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3787821233272497E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0321900546550695E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2035824656486497E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0560492575168596E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0241138339042594E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9508373737335205E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9856494665145805E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8624511361122104E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7972689867019598E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1956342309713301E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,39 +1096,90 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Learning Rate Experiment'!$D$33:$D$42</c:f>
+              <c:f>'Learning Rate Experiment'!$D$33:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.90048777999999996</c:v>
+                  <c:v>0.77044552564620905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89031368</c:v>
+                  <c:v>0.71204626560211104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88387519000000003</c:v>
+                  <c:v>0.67480641603469804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87575364</c:v>
+                  <c:v>0.41853365302085799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86860435999999996</c:v>
+                  <c:v>0.31490489840507502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85630726999999995</c:v>
+                  <c:v>0.26388075947761502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84837651000000003</c:v>
+                  <c:v>0.28176069259643499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84239768999999998</c:v>
+                  <c:v>0.239528253674507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82898384000000003</c:v>
+                  <c:v>0.30111247301101601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81514955</c:v>
+                  <c:v>0.22996538877487099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.244806498289108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.227839469909667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.236006200313568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24307516217231701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.221479177474975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22495222091674799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.204422757029533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219595372676849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21933986246585799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.246313750743865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20103679597377699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.205711990594863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20002229511737801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23339322209358199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.220425054430961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20210081338882399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20836520195007299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1187,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84B4-734A-8B5E-1108B93B943D}"/>
+              <c16:uniqueId val="{00000003-84B4-734A-8B5E-1108B93B943D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,7 +1471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Learning Rate Experiment'!$B$45</c:f>
+              <c:f>'Learning Rate Experiment'!$B$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1344,10 +1494,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Learning Rate Experiment'!$B$46:$B$110</c:f>
+              <c:f>'Learning Rate Experiment'!$B$76:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.90123313665390004</c:v>
                 </c:pt>
@@ -1428,120 +1578,6 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.22248938679695099</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.22244112193584401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.21524699032306599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.219915807247161</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.212728902697563</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.21337039768695801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19005060195922799</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.19409717619419001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.196654632687568</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.18146060407161699</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.19531546533107699</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.18674968183040599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.177911177277565</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.17941688001155801</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.16709926724433899</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.167997911572456</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.16879916191100999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.16292127966880701</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.16685256361961301</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.156494811177253</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.14848446846008301</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.13954709470272</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.14576983451843201</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.16038700938224701</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.14318333566188801</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.138168260455131</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.139724746346473</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.13752695918083099</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.13312339782714799</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.115072183310985</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.108198411762714</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.11188422143459301</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.10086145997047399</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.8756469786167103E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.7907528281211798E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.7949996590614305E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.4517417252063696E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.3363456428050995E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.6597164869308402E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,7 +1594,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Learning Rate Experiment'!$D$45</c:f>
+              <c:f>'Learning Rate Experiment'!$D$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1581,10 +1617,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Learning Rate Experiment'!$D$46:$D$110</c:f>
+              <c:f>'Learning Rate Experiment'!$D$76:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.89553076028823797</c:v>
                 </c:pt>
@@ -1665,120 +1701,6 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.35141080617904602</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.273547202348709</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.31982448697090099</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.29213598370552002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.30163300037384</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.29058033227920499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.27835556864738398</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27195194363594</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.26913210749626099</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.31108573079109098</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.275233834981918</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.28185364603996199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.27087756991386402</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.27463075518607999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.26763045787811202</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.28664791584014798</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.30392718315124501</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.26887497305870001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.296471387147903</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.271797865629196</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.25203254818916299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.26350593566894498</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.24781659245491</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.26642635464668202</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.27923217415809598</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.25938087701797402</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.26802420616149902</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.28970143198966902</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.28602650761604298</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.25658586621284402</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.25864005088806102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.25691938400268499</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.26890358328819203</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.26393374800682001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.25434306263923601</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.257360309362411</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.26359465718269298</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.26314437389373702</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.26232615113258301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,7 +1708,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE7C-474E-A098-A98E2885CED7}"/>
+              <c16:uniqueId val="{00000002-BE7C-474E-A098-A98E2885CED7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4063,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6492E9E4-EF2C-874C-8248-8D2E5DA34402}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4078,11 +4000,12 @@
     <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="11" width="15.83203125" customWidth="1"/>
+    <col min="8" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4487,10 +4410,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14">
@@ -4505,7 +4428,7 @@
       <c r="J14">
         <v>0.184362232685089</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>0.69314372539520197</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -4582,22 +4505,400 @@
         <v>0.69025677442550604</v>
       </c>
     </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>0.100312232971191</v>
+      </c>
+      <c r="H24">
+        <v>0.81699150800704901</v>
+      </c>
+      <c r="I24">
+        <v>0.15873269736766801</v>
+      </c>
+      <c r="J24">
+        <v>0.73396039009094205</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1.34277421479383E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>4.6679887920618002E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.91186201572418202</v>
+      </c>
+      <c r="I25">
+        <v>0.184362232685089</v>
+      </c>
+      <c r="J25">
+        <v>0.69314372539520197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:L16" xr:uid="{6492E9E4-EF2C-874C-8248-8D2E5DA34402}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L16">
-      <sortCondition descending="1" ref="K3:K16"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:K16" xr:uid="{6492E9E4-EF2C-874C-8248-8D2E5DA34402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F32C98-D581-9C49-B4FC-480D699461ED}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="9">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>0.11788402497768399</v>
+      </c>
+      <c r="D3">
+        <v>0.790244460105896</v>
+      </c>
+      <c r="E3">
+        <v>0.169353038072586</v>
+      </c>
+      <c r="F3">
+        <v>0.71893095970153797</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.21769897999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.65977675000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>4.3820310384035097E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.91682451963424605</v>
+      </c>
+      <c r="E4">
+        <v>0.178597256541252</v>
+      </c>
+      <c r="F4">
+        <v>0.69978058338165205</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.21832836999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.64955589999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961A768-CDA3-AD41-BCE3-707F25E2D25F}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>4.6679887920618002E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.91186201572418202</v>
+      </c>
+      <c r="G3">
+        <v>0.184362232685089</v>
+      </c>
+      <c r="H3">
+        <v>0.69314372539520197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>0.17433637380599901</v>
+      </c>
+      <c r="F4">
+        <v>0.72361969947814897</v>
+      </c>
+      <c r="G4">
+        <v>0.287621349096298</v>
+      </c>
+      <c r="H4">
+        <v>0.60826659202575595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36640D6-912C-6142-B46C-2E338AA9AFBF}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.6679888000000003E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.91186201600000005</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.18436223299999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.69314372499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.14576982999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.74946988000000003</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.24781659</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.60994148000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB171A56-04FC-734F-924B-27B79DE7A178}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4610,7 +4911,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4769,678 +5070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B76D071-4E5F-0F4B-8537-52F734966543}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>5.4564617574214901E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.89710074663162198</v>
-      </c>
-      <c r="D2">
-        <v>0.18236218392848899</v>
-      </c>
-      <c r="E2">
-        <v>0.69869667291641202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>5.41613847017288E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.89760160446166903</v>
-      </c>
-      <c r="D3">
-        <v>0.182837009429931</v>
-      </c>
-      <c r="E3">
-        <v>0.69524359703063898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>5.1936168223619399E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.901680588722229</v>
-      </c>
-      <c r="D4">
-        <v>0.18330052495002699</v>
-      </c>
-      <c r="E4">
-        <v>0.69498580694198597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>3.6990214139223099E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.92767822742462103</v>
-      </c>
-      <c r="D5">
-        <v>0.18306472897529599</v>
-      </c>
-      <c r="E5">
-        <v>0.69434612989425604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>3.9816983044147401E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.92282146215438798</v>
-      </c>
-      <c r="D6">
-        <v>0.18641160428524001</v>
-      </c>
-      <c r="E6">
-        <v>0.68933576345443703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>5.2549947053193997E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.90085256099700906</v>
-      </c>
-      <c r="D7">
-        <v>0.187300905585289</v>
-      </c>
-      <c r="E7">
-        <v>0.68809449672698897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>3.8600444793701102E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.92488211393356301</v>
-      </c>
-      <c r="D8">
-        <v>0.18730548024177501</v>
-      </c>
-      <c r="E8">
-        <v>0.68743383884429898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>4.2353291064500802E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.91838729381561202</v>
-      </c>
-      <c r="D9">
-        <v>0.18870511651039101</v>
-      </c>
-      <c r="E9">
-        <v>0.68680548667907704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>6.2070719897746998E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.88473445177078203</v>
-      </c>
-      <c r="D10">
-        <v>0.18859617412090299</v>
-      </c>
-      <c r="E10">
-        <v>0.68619644641876198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>3.3861491829156799E-2</v>
-      </c>
-      <c r="C11">
-        <v>0.93319457769393899</v>
-      </c>
-      <c r="D11">
-        <v>0.18870919942855799</v>
-      </c>
-      <c r="E11">
-        <v>0.68524694442749001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>3.5531777888536398E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.929970383644104</v>
-      </c>
-      <c r="D12">
-        <v>0.190534323453903</v>
-      </c>
-      <c r="E12">
-        <v>0.68495213985443104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>5.2451908588409403E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.90104317665100098</v>
-      </c>
-      <c r="D13">
-        <v>0.19243223965167999</v>
-      </c>
-      <c r="E13">
-        <v>0.68219739198684604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>9.6848949790000902E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.82847702503204301</v>
-      </c>
-      <c r="D14">
-        <v>0.19723911583423601</v>
-      </c>
-      <c r="E14">
-        <v>0.681948661804199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>3.7867721170186899E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.92605251073837203</v>
-      </c>
-      <c r="D15">
-        <v>0.19022144377231501</v>
-      </c>
-      <c r="E15">
-        <v>0.68162107467651301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>3.6071598529815598E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.92929738759994496</v>
-      </c>
-      <c r="D16">
-        <v>0.191687121987342</v>
-      </c>
-      <c r="E16">
-        <v>0.68033468723297097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>5.9281148016452699E-2</v>
-      </c>
-      <c r="C17">
-        <v>0.88958120346069303</v>
-      </c>
-      <c r="D17">
-        <v>0.19299353659152901</v>
-      </c>
-      <c r="E17">
-        <v>0.67865210771560602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>5.1886159926652901E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.90167021751403797</v>
-      </c>
-      <c r="D18">
-        <v>0.19634716212749401</v>
-      </c>
-      <c r="E18">
-        <v>0.67741376161575295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>3.4778144210576997E-2</v>
-      </c>
-      <c r="C19">
-        <v>0.93156349658965998</v>
-      </c>
-      <c r="D19">
-        <v>0.19767233729362399</v>
-      </c>
-      <c r="E19">
-        <v>0.67702323198318404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>6.7549273371696403E-2</v>
-      </c>
-      <c r="C20">
-        <v>0.87553858757018999</v>
-      </c>
-      <c r="D20">
-        <v>0.19565278291702201</v>
-      </c>
-      <c r="E20">
-        <v>0.676952064037323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>6.3020229339599595E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.88329267501830999</v>
-      </c>
-      <c r="D21">
-        <v>0.19817188382148701</v>
-      </c>
-      <c r="E21">
-        <v>0.67357456684112504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>4.8142779618501601E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.90821957588195801</v>
-      </c>
-      <c r="D22">
-        <v>0.201499208807945</v>
-      </c>
-      <c r="E22">
-        <v>0.67251265048980702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>8.3893045783042894E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.84871566295623702</v>
-      </c>
-      <c r="D23">
-        <v>0.19964069128036499</v>
-      </c>
-      <c r="E23">
-        <v>0.67110151052474898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>7.5410574674606295E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.86251586675643899</v>
-      </c>
-      <c r="D24">
-        <v>0.20264798402786199</v>
-      </c>
-      <c r="E24">
-        <v>0.66675573587417603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>6.4171440899372101E-2</v>
-      </c>
-      <c r="C25">
-        <v>0.88148593902587802</v>
-      </c>
-      <c r="D25">
-        <v>0.202308014035224</v>
-      </c>
-      <c r="E25">
-        <v>0.66656327247619596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>6.20065815746784E-2</v>
-      </c>
-      <c r="C26">
-        <v>0.88466536998748702</v>
-      </c>
-      <c r="D26">
-        <v>0.208502307534217</v>
-      </c>
-      <c r="E26">
-        <v>0.66581630706787098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0.13355430960655201</v>
-      </c>
-      <c r="C27">
-        <v>0.77340948581695501</v>
-      </c>
-      <c r="D27">
-        <v>0.20553953945636699</v>
-      </c>
-      <c r="E27">
-        <v>0.66331368684768599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>0.12573432922363201</v>
-      </c>
-      <c r="C28">
-        <v>0.78463315963745095</v>
-      </c>
-      <c r="D28">
-        <v>0.210967987775802</v>
-      </c>
-      <c r="E28">
-        <v>0.66190254688262895</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>0.104179009795188</v>
-      </c>
-      <c r="C29">
-        <v>0.81756836175918501</v>
-      </c>
-      <c r="D29">
-        <v>0.218213841319084</v>
-      </c>
-      <c r="E29">
-        <v>0.65040618181228604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>0.11009238660335501</v>
-      </c>
-      <c r="C30">
-        <v>0.80811214447021396</v>
-      </c>
-      <c r="D30">
-        <v>0.21740055084228499</v>
-      </c>
-      <c r="E30">
-        <v>0.64972251653671198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>0.103314816951751</v>
-      </c>
-      <c r="C31">
-        <v>0.81781333684921198</v>
-      </c>
-      <c r="D31">
-        <v>0.217918336391448</v>
-      </c>
-      <c r="E31">
-        <v>0.64630597829818703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32">
-        <v>5.3522214293479899E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.89953273534774703</v>
-      </c>
-      <c r="D32">
-        <v>0.219843000173568</v>
-      </c>
-      <c r="E32">
-        <v>0.64242130517959595</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>8.9216962456703103E-2</v>
-      </c>
-      <c r="C33">
-        <v>0.84042668342590299</v>
-      </c>
-      <c r="D33">
-        <v>0.228733479976654</v>
-      </c>
-      <c r="E33">
-        <v>0.63590413331985396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>0.14764073491096399</v>
-      </c>
-      <c r="C34">
-        <v>0.75281006097793501</v>
-      </c>
-      <c r="D34">
-        <v>0.23013755679130499</v>
-      </c>
-      <c r="E34">
-        <v>0.633689165115356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>0.16653148829936901</v>
-      </c>
-      <c r="C35">
-        <v>0.72925406694412198</v>
-      </c>
-      <c r="D35">
-        <v>0.27494901418685902</v>
-      </c>
-      <c r="E35">
-        <v>0.57647472620010298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>0.19179426133632599</v>
-      </c>
-      <c r="C36">
-        <v>0.69636589288711503</v>
-      </c>
-      <c r="D36">
-        <v>0.38237440586089999</v>
-      </c>
-      <c r="E36">
-        <v>0.45576578378677302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0.26102724671363797</v>
-      </c>
-      <c r="C37">
-        <v>0.62295097112655595</v>
-      </c>
-      <c r="D37">
-        <v>0.73257625102996804</v>
-      </c>
-      <c r="E37">
-        <v>0.15559069812297799</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>0.57328242063522294</v>
-      </c>
-      <c r="C38">
-        <v>0.43760013580322199</v>
-      </c>
-      <c r="D38">
-        <v>0.83663976192474299</v>
-      </c>
-      <c r="E38">
-        <v>9.8554983735084506E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E38" xr:uid="{7B76D071-4E5F-0F4B-8537-52F734966543}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
-      <sortCondition descending="1" ref="E1:E38"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACFECF8-4A1F-7B40-A7E4-0E03A0F9A036}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5453,7 +5088,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5502,19 +5137,19 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>48</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0.14576982999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>0.74946988000000003</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>0.24781659</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0.60994148000000004</v>
       </c>
     </row>
@@ -5557,12 +5192,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50F3C7B-BD48-954E-A176-E676E55499B5}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6075,16 +5710,16 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>0.92067653000000005</v>
+        <v>0.80772274732589699</v>
       </c>
       <c r="C33">
-        <v>0.16166</v>
+        <v>0.265315651893615</v>
       </c>
       <c r="D33">
-        <v>0.90048777999999996</v>
+        <v>0.77044552564620905</v>
       </c>
       <c r="E33">
-        <v>0.23557038999999999</v>
+        <v>0.40757492184638899</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6092,16 +5727,16 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.89503509000000003</v>
+        <v>0.58550250530242898</v>
       </c>
       <c r="C34">
-        <v>0.23778071000000001</v>
+        <v>0.538413405418396</v>
       </c>
       <c r="D34">
-        <v>0.89031368</v>
+        <v>0.71204626560211104</v>
       </c>
       <c r="E34">
-        <v>0.29178298000000003</v>
+        <v>0.32035458087921098</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6109,16 +5744,16 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>0.88557655000000002</v>
+        <v>0.40742754936218201</v>
       </c>
       <c r="C35">
-        <v>0.27186915</v>
+        <v>0.63657647371292103</v>
       </c>
       <c r="D35">
-        <v>0.88387519000000003</v>
+        <v>0.67480641603469804</v>
       </c>
       <c r="E35">
-        <v>0.19745599</v>
+        <v>0.259839057922363</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6126,16 +5761,16 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>0.87737644000000004</v>
+        <v>0.29339370131492598</v>
       </c>
       <c r="C36">
-        <v>0.29647689999999999</v>
+        <v>0.68481624126434304</v>
       </c>
       <c r="D36">
-        <v>0.87575364</v>
+        <v>0.41853365302085799</v>
       </c>
       <c r="E36">
-        <v>0.20890754</v>
+        <v>0.48560777306556702</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6143,16 +5778,16 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>0.86807394000000004</v>
+        <v>0.230894654989242</v>
       </c>
       <c r="C37">
-        <v>0.33467570000000002</v>
+        <v>0.71939879655838002</v>
       </c>
       <c r="D37">
-        <v>0.86860435999999996</v>
+        <v>0.31490489840507502</v>
       </c>
       <c r="E37">
-        <v>0.44297334999999999</v>
+        <v>0.57663196325302102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6160,16 +5795,16 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>0.86180937000000002</v>
+        <v>0.19421347975730799</v>
       </c>
       <c r="C38">
-        <v>0.32682647999999997</v>
+        <v>0.74523353576660101</v>
       </c>
       <c r="D38">
-        <v>0.85630726999999995</v>
+        <v>0.26388075947761502</v>
       </c>
       <c r="E38">
-        <v>0.41056544</v>
+        <v>0.62732326984405495</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -6177,16 +5812,16 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>0.85162680999999996</v>
+        <v>0.16783811151981301</v>
       </c>
       <c r="C39">
-        <v>0.35466254000000003</v>
+        <v>0.76704496145248402</v>
       </c>
       <c r="D39">
-        <v>0.84837651000000003</v>
+        <v>0.28176069259643499</v>
       </c>
       <c r="E39">
-        <v>0.40227634000000001</v>
+        <v>0.59362637996673495</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6194,16 +5829,16 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>0.84060447999999999</v>
+        <v>0.149433508515357</v>
       </c>
       <c r="C40">
-        <v>0.38825842999999999</v>
+        <v>0.78327721357345503</v>
       </c>
       <c r="D40">
-        <v>0.84239768999999998</v>
+        <v>0.239528253674507</v>
       </c>
       <c r="E40">
-        <v>0.43895741999999999</v>
+        <v>0.641709685325622</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -6211,16 +5846,16 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>0.83225989</v>
+        <v>0.13771973550319599</v>
       </c>
       <c r="C41">
-        <v>0.37530181000000001</v>
+        <v>0.79373639822006203</v>
       </c>
       <c r="D41">
-        <v>0.82898384000000003</v>
+        <v>0.30111247301101601</v>
       </c>
       <c r="E41">
-        <v>0.42910989999999999</v>
+        <v>0.55534261465072599</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6228,1142 +5863,1601 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>0.81918073000000002</v>
+        <v>0.12534362077712999</v>
       </c>
       <c r="C42">
-        <v>0.41304742999999999</v>
+        <v>0.80847531557083097</v>
       </c>
       <c r="D42">
-        <v>0.81514955</v>
+        <v>0.22996538877487099</v>
       </c>
       <c r="E42">
-        <v>0.34390858000000002</v>
+        <v>0.64896589517593295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0.11440472304821001</v>
+      </c>
+      <c r="C43">
+        <v>0.82145762443542403</v>
+      </c>
+      <c r="D43">
+        <v>0.244806498289108</v>
+      </c>
+      <c r="E43">
+        <v>0.62103253602981501</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>50</v>
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>0.11189812421798701</v>
+      </c>
+      <c r="C44">
+        <v>0.82468092441558805</v>
+      </c>
+      <c r="D44">
+        <v>0.227839469909667</v>
+      </c>
+      <c r="E44">
+        <v>0.64287728071212702</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" t="s">
-        <v>37</v>
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.103364005684852</v>
+      </c>
+      <c r="C45">
+        <v>0.83394443988800004</v>
+      </c>
+      <c r="D45">
+        <v>0.236006200313568</v>
+      </c>
+      <c r="E45">
+        <v>0.632021903991699</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>0.90123313665390004</v>
+        <v>0.100266233086586</v>
       </c>
       <c r="C46">
-        <v>0.17645280063152299</v>
+        <v>0.83736890554428101</v>
       </c>
       <c r="D46">
-        <v>0.89553076028823797</v>
+        <v>0.24307516217231701</v>
       </c>
       <c r="E46">
-        <v>0.113754868507385</v>
+        <v>0.619398653507232</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>0.861644327640533</v>
+        <v>9.0931378304958302E-2</v>
       </c>
       <c r="C47">
-        <v>0.24672175943851399</v>
+        <v>0.85032218694686801</v>
       </c>
       <c r="D47">
-        <v>0.837960004806518</v>
+        <v>0.221479177474975</v>
       </c>
       <c r="E47">
-        <v>0.33168566226959201</v>
+        <v>0.64939200878143299</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>0.81300079822540205</v>
+        <v>8.7676353752612998E-2</v>
       </c>
       <c r="C48">
-        <v>0.29634392261505099</v>
+        <v>0.85527044534683205</v>
       </c>
       <c r="D48">
-        <v>0.78540295362472501</v>
+        <v>0.22495222091674799</v>
       </c>
       <c r="E48">
-        <v>0.25445583462715099</v>
+        <v>0.64457190036773604</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>0.73280769586563099</v>
+        <v>8.5007444024085999E-2</v>
       </c>
       <c r="C49">
-        <v>0.33354076743125899</v>
+        <v>0.85801231861114502</v>
       </c>
       <c r="D49">
-        <v>0.72281384468078602</v>
+        <v>0.204422757029533</v>
       </c>
       <c r="E49">
-        <v>0.24739633500576</v>
+        <v>0.67482852935791005</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>0.62274670600891102</v>
+        <v>8.3787821233272497E-2</v>
       </c>
       <c r="C50">
-        <v>0.37834569811820901</v>
+        <v>0.85944789648055997</v>
       </c>
       <c r="D50">
-        <v>0.65642368793487504</v>
+        <v>0.219595372676849</v>
       </c>
       <c r="E50">
-        <v>0.37046706676483099</v>
+        <v>0.65687638521194402</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>0.52692061662673895</v>
+        <v>8.0321900546550695E-2</v>
       </c>
       <c r="C51">
-        <v>0.42025294899940402</v>
+        <v>0.86455303430557195</v>
       </c>
       <c r="D51">
-        <v>0.54483133554458596</v>
+        <v>0.21933986246585799</v>
       </c>
       <c r="E51">
-        <v>0.36741426587104797</v>
+        <v>0.64743703603744496</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>0.45192873477935702</v>
+        <v>8.2035824656486497E-2</v>
       </c>
       <c r="C52">
-        <v>0.45493713021278298</v>
+        <v>0.86122494935989302</v>
       </c>
       <c r="D52">
-        <v>0.69179207086563099</v>
+        <v>0.246313750743865</v>
       </c>
       <c r="E52">
-        <v>0.21344676613807601</v>
+        <v>0.61028319597244196</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>0.40340784192085199</v>
+        <v>7.0560492575168596E-2</v>
       </c>
       <c r="C53">
-        <v>0.47985363006591703</v>
+        <v>0.87876391410827603</v>
       </c>
       <c r="D53">
-        <v>0.412406265735626</v>
+        <v>0.20103679597377699</v>
       </c>
       <c r="E53">
-        <v>0.46303790807723999</v>
+        <v>0.67735737562179499</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>0.37477630376815702</v>
+        <v>7.0241138339042594E-2</v>
       </c>
       <c r="C54">
-        <v>0.49669906497001598</v>
+        <v>0.87902194261550903</v>
       </c>
       <c r="D54">
-        <v>0.39495202898979098</v>
+        <v>0.205711990594863</v>
       </c>
       <c r="E54">
-        <v>0.47040504217147799</v>
+        <v>0.66756272315979004</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>0.34656020998954701</v>
+        <v>6.9508373737335205E-2</v>
       </c>
       <c r="C55">
-        <v>0.51858693361282304</v>
+        <v>0.88004255294799805</v>
       </c>
       <c r="D55">
-        <v>0.35114541649818398</v>
+        <v>0.20002229511737801</v>
       </c>
       <c r="E55">
-        <v>0.50639420747756902</v>
+        <v>0.677296042442321</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>0.33470338582992498</v>
+        <v>6.9856494665145805E-2</v>
       </c>
       <c r="C56">
-        <v>0.52538639307022095</v>
+        <v>0.879580438137054</v>
       </c>
       <c r="D56">
-        <v>0.33602684736251798</v>
+        <v>0.23339322209358199</v>
       </c>
       <c r="E56">
-        <v>0.51848924160003595</v>
+        <v>0.63012355566024703</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>0.325739055871963</v>
+        <v>6.8624511361122104E-2</v>
       </c>
       <c r="C57">
-        <v>0.53314381837844804</v>
+        <v>0.881491899490356</v>
       </c>
       <c r="D57">
-        <v>0.37533038854598999</v>
+        <v>0.220425054430961</v>
       </c>
       <c r="E57">
-        <v>0.46938213706016502</v>
+        <v>0.64610946178436202</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>0.321710765361785</v>
+        <v>6.7972689867019598E-2</v>
       </c>
       <c r="C58">
-        <v>0.53339082002639704</v>
+        <v>0.88090467453002896</v>
       </c>
       <c r="D58">
-        <v>0.33370989561080899</v>
+        <v>0.20210081338882399</v>
       </c>
       <c r="E58">
-        <v>0.51810491085052401</v>
+        <v>0.67136275768279996</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>0.29851147532463002</v>
+        <v>6.1956342309713301E-2</v>
       </c>
       <c r="C59">
-        <v>0.55992448329925504</v>
+        <v>0.89156109094619695</v>
       </c>
       <c r="D59">
-        <v>0.35260093212127602</v>
+        <v>0.20836520195007299</v>
       </c>
       <c r="E59">
-        <v>0.50358355045318604</v>
+        <v>0.66136044263839699</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>0.29229030013084401</v>
+        <v>5.9675302356481497E-2</v>
       </c>
       <c r="C60">
-        <v>0.56379753351211503</v>
+        <v>0.89488554000854403</v>
       </c>
       <c r="D60">
-        <v>0.327406376600265</v>
+        <v>0.22330313920974701</v>
       </c>
       <c r="E60">
-        <v>0.52248203754425004</v>
+        <v>0.64376348257064797</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>0.27779653668403598</v>
+        <v>5.9465873986482599E-2</v>
       </c>
       <c r="C61">
-        <v>0.579240322113037</v>
+        <v>0.894955813884735</v>
       </c>
       <c r="D61">
-        <v>0.32132902741432101</v>
+        <v>0.209438636898994</v>
       </c>
       <c r="E61">
-        <v>0.52970385551452603</v>
+        <v>0.66138648986816395</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>0.27442276477813698</v>
+        <v>5.9771776199340799E-2</v>
       </c>
       <c r="C62">
-        <v>0.58366966247558505</v>
+        <v>0.89409941434860196</v>
       </c>
       <c r="D62">
-        <v>0.33539813756942699</v>
+        <v>0.20928934216499301</v>
       </c>
       <c r="E62">
-        <v>0.51093566417694003</v>
+        <v>0.65888190269470204</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>0.27974522113799999</v>
+        <v>5.8275137096643399E-2</v>
       </c>
       <c r="C63">
-        <v>0.57718914747238104</v>
+        <v>0.89623630046844405</v>
       </c>
       <c r="D63">
-        <v>0.37819024920463501</v>
+        <v>0.22202208638191201</v>
       </c>
       <c r="E63">
-        <v>0.45770987868308999</v>
+        <v>0.64164900779724099</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B64">
-        <v>0.26597496867179798</v>
+        <v>5.5724967271089498E-2</v>
       </c>
       <c r="C64">
-        <v>0.58999103307723999</v>
+        <v>0.90081053972244196</v>
       </c>
       <c r="D64">
-        <v>0.34477606415748502</v>
+        <v>0.21435910463333099</v>
       </c>
       <c r="E64">
-        <v>0.49300935864448497</v>
+        <v>0.65060096979141202</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B65">
-        <v>0.262267976999282</v>
+        <v>5.3566616028547197E-2</v>
       </c>
       <c r="C65">
-        <v>0.59535813331604004</v>
+        <v>0.90398633480071999</v>
       </c>
       <c r="D65">
-        <v>0.34809905290603599</v>
+        <v>0.203231155872344</v>
       </c>
       <c r="E65">
-        <v>0.501287400722503</v>
+        <v>0.66451001167297297</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B66">
-        <v>0.25247552990913302</v>
+        <v>5.1521748304367003E-2</v>
       </c>
       <c r="C66">
-        <v>0.60718196630477905</v>
+        <v>0.907545626163482</v>
       </c>
       <c r="D66">
-        <v>0.31231909990310602</v>
+        <v>0.21766896545886899</v>
       </c>
       <c r="E66">
-        <v>0.53396427631378096</v>
+        <v>0.64653337001800504</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B67">
-        <v>0.245624840259552</v>
+        <v>5.1067270338535302E-2</v>
       </c>
       <c r="C67">
-        <v>0.61590754985809304</v>
+        <v>0.90773350000381403</v>
       </c>
       <c r="D67">
-        <v>0.31015926599502502</v>
+        <v>0.21436475217342299</v>
       </c>
       <c r="E67">
-        <v>0.54090547561645497</v>
+        <v>0.65699660778045599</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B68">
-        <v>0.23517557978629999</v>
+        <v>5.0649907439947101E-2</v>
       </c>
       <c r="C68">
-        <v>0.62816894054412797</v>
+        <v>0.90864622592926003</v>
       </c>
       <c r="D68">
-        <v>0.29276880621910001</v>
+        <v>0.21699421107769001</v>
       </c>
       <c r="E68">
-        <v>0.55761510133743197</v>
+        <v>0.65205222368240301</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B69">
-        <v>0.24504172801971399</v>
+        <v>4.9719322472810697E-2</v>
       </c>
       <c r="C69">
-        <v>0.61678683757781905</v>
+        <v>0.90994900465011597</v>
       </c>
       <c r="D69">
-        <v>0.30676746368408198</v>
+        <v>0.221964180469512</v>
       </c>
       <c r="E69">
-        <v>0.53815108537673895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>24</v>
-      </c>
-      <c r="B70">
-        <v>0.24610154330730399</v>
-      </c>
-      <c r="C70">
-        <v>0.61375403404235795</v>
-      </c>
-      <c r="D70">
-        <v>0.313598752021789</v>
-      </c>
-      <c r="E70">
-        <v>0.53150629997253396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>25</v>
-      </c>
-      <c r="B71">
-        <v>0.238087758421897</v>
-      </c>
-      <c r="C71">
-        <v>0.62302362918853704</v>
-      </c>
-      <c r="D71">
-        <v>0.29053306579589799</v>
-      </c>
-      <c r="E71">
-        <v>0.56291973590850797</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>26</v>
-      </c>
-      <c r="B72">
-        <v>0.22248938679695099</v>
-      </c>
-      <c r="C72">
-        <v>0.64474272727966297</v>
-      </c>
-      <c r="D72">
-        <v>0.35141080617904602</v>
-      </c>
-      <c r="E72">
-        <v>0.48291540145874001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>27</v>
-      </c>
-      <c r="B73">
-        <v>0.22244112193584401</v>
-      </c>
-      <c r="C73">
-        <v>0.64346283674240101</v>
-      </c>
-      <c r="D73">
-        <v>0.273547202348709</v>
-      </c>
-      <c r="E73">
-        <v>0.58311110734939497</v>
+        <v>0.63848572969436601</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>28</v>
-      </c>
-      <c r="B74">
-        <v>0.21524699032306599</v>
-      </c>
-      <c r="C74">
-        <v>0.65237319469451904</v>
-      </c>
-      <c r="D74">
-        <v>0.31982448697090099</v>
-      </c>
-      <c r="E74">
-        <v>0.51619625091552701</v>
+      <c r="A74" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>29</v>
-      </c>
-      <c r="B75">
-        <v>0.219915807247161</v>
-      </c>
-      <c r="C75">
-        <v>0.64804166555404596</v>
-      </c>
-      <c r="D75">
-        <v>0.29213598370552002</v>
-      </c>
-      <c r="E75">
-        <v>0.55902230739593495</v>
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>0.212728902697563</v>
+        <v>0.90123313665390004</v>
       </c>
       <c r="C76">
-        <v>0.65570884943008401</v>
+        <v>0.17645280063152299</v>
       </c>
       <c r="D76">
-        <v>0.30163300037384</v>
+        <v>0.89553076028823797</v>
       </c>
       <c r="E76">
-        <v>0.54661887884140004</v>
+        <v>0.113754868507385</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>0.21337039768695801</v>
+        <v>0.861644327640533</v>
       </c>
       <c r="C77">
-        <v>0.65398406982421797</v>
+        <v>0.24672175943851399</v>
       </c>
       <c r="D77">
-        <v>0.29058033227920499</v>
+        <v>0.837960004806518</v>
       </c>
       <c r="E77">
-        <v>0.55898183584213201</v>
+        <v>0.33168566226959201</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>0.19005060195922799</v>
+        <v>0.81300079822540205</v>
       </c>
       <c r="C78">
-        <v>0.68594110012054399</v>
+        <v>0.29634392261505099</v>
       </c>
       <c r="D78">
-        <v>0.27835556864738398</v>
+        <v>0.78540295362472501</v>
       </c>
       <c r="E78">
-        <v>0.57543259859085005</v>
+        <v>0.25445583462715099</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>0.19409717619419001</v>
+        <v>0.73280769586563099</v>
       </c>
       <c r="C79">
-        <v>0.67993909120559604</v>
+        <v>0.33354076743125899</v>
       </c>
       <c r="D79">
-        <v>0.27195194363594</v>
+        <v>0.72281384468078602</v>
       </c>
       <c r="E79">
-        <v>0.58208006620407104</v>
+        <v>0.24739633500576</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>0.196654632687568</v>
+        <v>0.62274670600891102</v>
       </c>
       <c r="C80">
-        <v>0.677010357379913</v>
+        <v>0.37834569811820901</v>
       </c>
       <c r="D80">
-        <v>0.26913210749626099</v>
+        <v>0.65642368793487504</v>
       </c>
       <c r="E80">
-        <v>0.582860767841339</v>
+        <v>0.37046706676483099</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>0.18146060407161699</v>
+        <v>0.52692061662673895</v>
       </c>
       <c r="C81">
-        <v>0.69675320386886597</v>
+        <v>0.42025294899940402</v>
       </c>
       <c r="D81">
-        <v>0.31108573079109098</v>
+        <v>0.54483133554458596</v>
       </c>
       <c r="E81">
-        <v>0.53320735692977905</v>
+        <v>0.36741426587104797</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>0.19531546533107699</v>
+        <v>0.45192873477935702</v>
       </c>
       <c r="C82">
-        <v>0.678802490234375</v>
+        <v>0.45493713021278298</v>
       </c>
       <c r="D82">
-        <v>0.275233834981918</v>
+        <v>0.69179207086563099</v>
       </c>
       <c r="E82">
-        <v>0.570243239402771</v>
+        <v>0.21344676613807601</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>0.18674968183040599</v>
+        <v>0.40340784192085199</v>
       </c>
       <c r="C83">
-        <v>0.69068884849548295</v>
+        <v>0.47985363006591703</v>
       </c>
       <c r="D83">
-        <v>0.28185364603996199</v>
+        <v>0.412406265735626</v>
       </c>
       <c r="E83">
-        <v>0.56648862361907903</v>
+        <v>0.46303790807723999</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>0.177911177277565</v>
+        <v>0.37477630376815702</v>
       </c>
       <c r="C84">
-        <v>0.70085912942886297</v>
+        <v>0.49669906497001598</v>
       </c>
       <c r="D84">
-        <v>0.27087756991386402</v>
+        <v>0.39495202898979098</v>
       </c>
       <c r="E84">
-        <v>0.58045935630798295</v>
+        <v>0.47040504217147799</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>0.17941688001155801</v>
+        <v>0.34656020998954701</v>
       </c>
       <c r="C85">
-        <v>0.70003741979598999</v>
+        <v>0.51858693361282304</v>
       </c>
       <c r="D85">
-        <v>0.27463075518607999</v>
+        <v>0.35114541649818398</v>
       </c>
       <c r="E85">
-        <v>0.57768529653549106</v>
+        <v>0.50639420747756902</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B86">
-        <v>0.16709926724433899</v>
+        <v>0.33470338582992498</v>
       </c>
       <c r="C86">
-        <v>0.71840012073516801</v>
+        <v>0.52538639307022095</v>
       </c>
       <c r="D86">
-        <v>0.26763045787811202</v>
+        <v>0.33602684736251798</v>
       </c>
       <c r="E86">
-        <v>0.58583676815032903</v>
+        <v>0.51848924160003595</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>0.167997911572456</v>
+        <v>0.325739055871963</v>
       </c>
       <c r="C87">
-        <v>0.71578967571258501</v>
+        <v>0.53314381837844804</v>
       </c>
       <c r="D87">
-        <v>0.28664791584014798</v>
+        <v>0.37533038854598999</v>
       </c>
       <c r="E87">
-        <v>0.56130689382553101</v>
+        <v>0.46938213706016502</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>0.16879916191100999</v>
+        <v>0.321710765361785</v>
       </c>
       <c r="C88">
-        <v>0.71491760015487604</v>
+        <v>0.53339082002639704</v>
       </c>
       <c r="D88">
-        <v>0.30392718315124501</v>
+        <v>0.33370989561080899</v>
       </c>
       <c r="E88">
-        <v>0.53679609298705999</v>
+        <v>0.51810491085052401</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>0.16292127966880701</v>
+        <v>0.29851147532463002</v>
       </c>
       <c r="C89">
-        <v>0.72371351718902499</v>
+        <v>0.55992448329925504</v>
       </c>
       <c r="D89">
-        <v>0.26887497305870001</v>
+        <v>0.35260093212127602</v>
       </c>
       <c r="E89">
-        <v>0.58376061916351296</v>
+        <v>0.50358355045318604</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>0.16685256361961301</v>
+        <v>0.29229030013084401</v>
       </c>
       <c r="C90">
-        <v>0.71763449907302801</v>
+        <v>0.56379753351211503</v>
       </c>
       <c r="D90">
-        <v>0.296471387147903</v>
+        <v>0.327406376600265</v>
       </c>
       <c r="E90">
-        <v>0.55621731281280495</v>
+        <v>0.52248203754425004</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>0.156494811177253</v>
+        <v>0.27779653668403598</v>
       </c>
       <c r="C91">
-        <v>0.732258081436157</v>
+        <v>0.579240322113037</v>
       </c>
       <c r="D91">
-        <v>0.271797865629196</v>
+        <v>0.32132902741432101</v>
       </c>
       <c r="E91">
-        <v>0.580846726894378</v>
+        <v>0.52970385551452603</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>0.14848446846008301</v>
+        <v>0.27442276477813698</v>
       </c>
       <c r="C92">
-        <v>0.74397403001785201</v>
+        <v>0.58366966247558505</v>
       </c>
       <c r="D92">
-        <v>0.25203254818916299</v>
+        <v>0.33539813756942699</v>
       </c>
       <c r="E92">
-        <v>0.59990262985229403</v>
+        <v>0.51093566417694003</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>0.13954709470272</v>
+        <v>0.27974522113799999</v>
       </c>
       <c r="C93">
-        <v>0.75656116008758501</v>
+        <v>0.57718914747238104</v>
       </c>
       <c r="D93">
-        <v>0.26350593566894498</v>
+        <v>0.37819024920463501</v>
       </c>
       <c r="E93">
-        <v>0.58916914463043202</v>
+        <v>0.45770987868308999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>0.14576983451843201</v>
+        <v>0.26597496867179798</v>
       </c>
       <c r="C94">
-        <v>0.74946987628936701</v>
+        <v>0.58999103307723999</v>
       </c>
       <c r="D94">
-        <v>0.24781659245491</v>
+        <v>0.34477606415748502</v>
       </c>
       <c r="E94">
-        <v>0.60994148254394498</v>
+        <v>0.49300935864448497</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>0.16038700938224701</v>
+        <v>0.262267976999282</v>
       </c>
       <c r="C95">
-        <v>0.72842061519622803</v>
+        <v>0.59535813331604004</v>
       </c>
       <c r="D95">
-        <v>0.26642635464668202</v>
+        <v>0.34809905290603599</v>
       </c>
       <c r="E95">
-        <v>0.58694130182266202</v>
+        <v>0.501287400722503</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>0.14318333566188801</v>
+        <v>0.25247552990913302</v>
       </c>
       <c r="C96">
-        <v>0.75203603506088201</v>
+        <v>0.60718196630477905</v>
       </c>
       <c r="D96">
-        <v>0.27923217415809598</v>
+        <v>0.31231909990310602</v>
       </c>
       <c r="E96">
-        <v>0.56901985406875599</v>
+        <v>0.53396427631378096</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>0.138168260455131</v>
+        <v>0.245624840259552</v>
       </c>
       <c r="C97">
-        <v>0.75921946763992298</v>
+        <v>0.61590754985809304</v>
       </c>
       <c r="D97">
-        <v>0.25938087701797402</v>
+        <v>0.31015926599502502</v>
       </c>
       <c r="E97">
-        <v>0.59086090326309204</v>
+        <v>0.54090547561645497</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <v>0.139724746346473</v>
+        <v>0.23517557978629999</v>
       </c>
       <c r="C98">
-        <v>0.75754469633102395</v>
+        <v>0.62816894054412797</v>
       </c>
       <c r="D98">
-        <v>0.26802420616149902</v>
+        <v>0.29276880621910001</v>
       </c>
       <c r="E98">
-        <v>0.58448851108551003</v>
+        <v>0.55761510133743197</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <v>0.13752695918083099</v>
+        <v>0.24504172801971399</v>
       </c>
       <c r="C99">
-        <v>0.76071965694427401</v>
+        <v>0.61678683757781905</v>
       </c>
       <c r="D99">
-        <v>0.28970143198966902</v>
+        <v>0.30676746368408198</v>
       </c>
       <c r="E99">
-        <v>0.55135887861251798</v>
+        <v>0.53815108537673895</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>0.13312339782714799</v>
+        <v>0.24610154330730399</v>
       </c>
       <c r="C100">
-        <v>0.76662296056747403</v>
+        <v>0.61375403404235795</v>
       </c>
       <c r="D100">
-        <v>0.28602650761604298</v>
+        <v>0.313598752021789</v>
       </c>
       <c r="E100">
-        <v>0.55711930990219105</v>
+        <v>0.53150629997253396</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>0.115072183310985</v>
+        <v>0.238087758421897</v>
       </c>
       <c r="C101">
-        <v>0.79487335681915205</v>
+        <v>0.62302362918853704</v>
       </c>
       <c r="D101">
-        <v>0.25658586621284402</v>
+        <v>0.29053306579589799</v>
       </c>
       <c r="E101">
-        <v>0.597972571849823</v>
+        <v>0.56291973590850797</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B102">
-        <v>0.108198411762714</v>
+        <v>0.22248938679695099</v>
       </c>
       <c r="C102">
-        <v>0.805808246135711</v>
+        <v>0.64474272727966297</v>
       </c>
       <c r="D102">
-        <v>0.25864005088806102</v>
+        <v>0.35141080617904602</v>
       </c>
       <c r="E102">
-        <v>0.59692472219467096</v>
+        <v>0.48291540145874001</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B103">
-        <v>0.11188422143459301</v>
+        <v>0.22244112193584401</v>
       </c>
       <c r="C103">
-        <v>0.80101937055587702</v>
+        <v>0.64346283674240101</v>
       </c>
       <c r="D103">
-        <v>0.25691938400268499</v>
+        <v>0.273547202348709</v>
       </c>
       <c r="E103">
-        <v>0.59719812870025601</v>
+        <v>0.58311110734939497</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B104">
-        <v>0.10086145997047399</v>
+        <v>0.21524699032306599</v>
       </c>
       <c r="C104">
-        <v>0.81725269556045499</v>
+        <v>0.65237319469451904</v>
       </c>
       <c r="D104">
-        <v>0.26890358328819203</v>
+        <v>0.31982448697090099</v>
       </c>
       <c r="E104">
-        <v>0.58209258317947299</v>
+        <v>0.51619625091552701</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B105">
-        <v>9.8756469786167103E-2</v>
+        <v>0.219915807247161</v>
       </c>
       <c r="C105">
-        <v>0.82054030895233099</v>
+        <v>0.64804166555404596</v>
       </c>
       <c r="D105">
-        <v>0.26393374800682001</v>
+        <v>0.29213598370552002</v>
       </c>
       <c r="E105">
-        <v>0.58841931819915705</v>
+        <v>0.55902230739593495</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B106">
-        <v>9.7907528281211798E-2</v>
+        <v>0.212728902697563</v>
       </c>
       <c r="C106">
-        <v>0.82200008630752497</v>
+        <v>0.65570884943008401</v>
       </c>
       <c r="D106">
-        <v>0.25434306263923601</v>
+        <v>0.30163300037384</v>
       </c>
       <c r="E106">
-        <v>0.60242652893066395</v>
+        <v>0.54661887884140004</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B107">
-        <v>9.7949996590614305E-2</v>
+        <v>0.21337039768695801</v>
       </c>
       <c r="C107">
-        <v>0.82179349660873402</v>
+        <v>0.65398406982421797</v>
       </c>
       <c r="D107">
-        <v>0.257360309362411</v>
+        <v>0.29058033227920499</v>
       </c>
       <c r="E107">
-        <v>0.59798514842987005</v>
+        <v>0.55898183584213201</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B108">
-        <v>9.4517417252063696E-2</v>
+        <v>0.19005060195922799</v>
       </c>
       <c r="C108">
-        <v>0.82738047838211004</v>
+        <v>0.68594110012054399</v>
       </c>
       <c r="D108">
-        <v>0.26359465718269298</v>
+        <v>0.27835556864738398</v>
       </c>
       <c r="E108">
-        <v>0.58669334650039595</v>
+        <v>0.57543259859085005</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B109">
-        <v>9.3363456428050995E-2</v>
+        <v>0.19409717619419001</v>
       </c>
       <c r="C109">
-        <v>0.82923316955566395</v>
+        <v>0.67993909120559604</v>
       </c>
       <c r="D109">
-        <v>0.26314437389373702</v>
+        <v>0.27195194363594</v>
       </c>
       <c r="E109">
-        <v>0.59345275163650502</v>
+        <v>0.58208006620407104</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
+        <v>34</v>
+      </c>
+      <c r="B110">
+        <v>0.196654632687568</v>
+      </c>
+      <c r="C110">
+        <v>0.677010357379913</v>
+      </c>
+      <c r="D110">
+        <v>0.26913210749626099</v>
+      </c>
+      <c r="E110">
+        <v>0.582860767841339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>35</v>
+      </c>
+      <c r="B111">
+        <v>0.18146060407161699</v>
+      </c>
+      <c r="C111">
+        <v>0.69675320386886597</v>
+      </c>
+      <c r="D111">
+        <v>0.31108573079109098</v>
+      </c>
+      <c r="E111">
+        <v>0.53320735692977905</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>36</v>
+      </c>
+      <c r="B112">
+        <v>0.19531546533107699</v>
+      </c>
+      <c r="C112">
+        <v>0.678802490234375</v>
+      </c>
+      <c r="D112">
+        <v>0.275233834981918</v>
+      </c>
+      <c r="E112">
+        <v>0.570243239402771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>37</v>
+      </c>
+      <c r="B113">
+        <v>0.18674968183040599</v>
+      </c>
+      <c r="C113">
+        <v>0.69068884849548295</v>
+      </c>
+      <c r="D113">
+        <v>0.28185364603996199</v>
+      </c>
+      <c r="E113">
+        <v>0.56648862361907903</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>0.177911177277565</v>
+      </c>
+      <c r="C114">
+        <v>0.70085912942886297</v>
+      </c>
+      <c r="D114">
+        <v>0.27087756991386402</v>
+      </c>
+      <c r="E114">
+        <v>0.58045935630798295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>39</v>
+      </c>
+      <c r="B115">
+        <v>0.17941688001155801</v>
+      </c>
+      <c r="C115">
+        <v>0.70003741979598999</v>
+      </c>
+      <c r="D115">
+        <v>0.27463075518607999</v>
+      </c>
+      <c r="E115">
+        <v>0.57768529653549106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>40</v>
+      </c>
+      <c r="B116">
+        <v>0.16709926724433899</v>
+      </c>
+      <c r="C116">
+        <v>0.71840012073516801</v>
+      </c>
+      <c r="D116">
+        <v>0.26763045787811202</v>
+      </c>
+      <c r="E116">
+        <v>0.58583676815032903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>41</v>
+      </c>
+      <c r="B117">
+        <v>0.167997911572456</v>
+      </c>
+      <c r="C117">
+        <v>0.71578967571258501</v>
+      </c>
+      <c r="D117">
+        <v>0.28664791584014798</v>
+      </c>
+      <c r="E117">
+        <v>0.56130689382553101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>42</v>
+      </c>
+      <c r="B118">
+        <v>0.16879916191100999</v>
+      </c>
+      <c r="C118">
+        <v>0.71491760015487604</v>
+      </c>
+      <c r="D118">
+        <v>0.30392718315124501</v>
+      </c>
+      <c r="E118">
+        <v>0.53679609298705999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>43</v>
+      </c>
+      <c r="B119">
+        <v>0.16292127966880701</v>
+      </c>
+      <c r="C119">
+        <v>0.72371351718902499</v>
+      </c>
+      <c r="D119">
+        <v>0.26887497305870001</v>
+      </c>
+      <c r="E119">
+        <v>0.58376061916351296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>44</v>
+      </c>
+      <c r="B120">
+        <v>0.16685256361961301</v>
+      </c>
+      <c r="C120">
+        <v>0.71763449907302801</v>
+      </c>
+      <c r="D120">
+        <v>0.296471387147903</v>
+      </c>
+      <c r="E120">
+        <v>0.55621731281280495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>45</v>
+      </c>
+      <c r="B121">
+        <v>0.156494811177253</v>
+      </c>
+      <c r="C121">
+        <v>0.732258081436157</v>
+      </c>
+      <c r="D121">
+        <v>0.271797865629196</v>
+      </c>
+      <c r="E121">
+        <v>0.580846726894378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>46</v>
+      </c>
+      <c r="B122">
+        <v>0.14848446846008301</v>
+      </c>
+      <c r="C122">
+        <v>0.74397403001785201</v>
+      </c>
+      <c r="D122">
+        <v>0.25203254818916299</v>
+      </c>
+      <c r="E122">
+        <v>0.59990262985229403</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>47</v>
+      </c>
+      <c r="B123">
+        <v>0.13954709470272</v>
+      </c>
+      <c r="C123">
+        <v>0.75656116008758501</v>
+      </c>
+      <c r="D123">
+        <v>0.26350593566894498</v>
+      </c>
+      <c r="E123">
+        <v>0.58916914463043202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>48</v>
+      </c>
+      <c r="B124">
+        <v>0.14576983451843201</v>
+      </c>
+      <c r="C124">
+        <v>0.74946987628936701</v>
+      </c>
+      <c r="D124">
+        <v>0.24781659245491</v>
+      </c>
+      <c r="E124">
+        <v>0.60994148254394498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>49</v>
+      </c>
+      <c r="B125">
+        <v>0.16038700938224701</v>
+      </c>
+      <c r="C125">
+        <v>0.72842061519622803</v>
+      </c>
+      <c r="D125">
+        <v>0.26642635464668202</v>
+      </c>
+      <c r="E125">
+        <v>0.58694130182266202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>50</v>
+      </c>
+      <c r="B126">
+        <v>0.14318333566188801</v>
+      </c>
+      <c r="C126">
+        <v>0.75203603506088201</v>
+      </c>
+      <c r="D126">
+        <v>0.27923217415809598</v>
+      </c>
+      <c r="E126">
+        <v>0.56901985406875599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>51</v>
+      </c>
+      <c r="B127">
+        <v>0.138168260455131</v>
+      </c>
+      <c r="C127">
+        <v>0.75921946763992298</v>
+      </c>
+      <c r="D127">
+        <v>0.25938087701797402</v>
+      </c>
+      <c r="E127">
+        <v>0.59086090326309204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>52</v>
+      </c>
+      <c r="B128">
+        <v>0.139724746346473</v>
+      </c>
+      <c r="C128">
+        <v>0.75754469633102395</v>
+      </c>
+      <c r="D128">
+        <v>0.26802420616149902</v>
+      </c>
+      <c r="E128">
+        <v>0.58448851108551003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>53</v>
+      </c>
+      <c r="B129">
+        <v>0.13752695918083099</v>
+      </c>
+      <c r="C129">
+        <v>0.76071965694427401</v>
+      </c>
+      <c r="D129">
+        <v>0.28970143198966902</v>
+      </c>
+      <c r="E129">
+        <v>0.55135887861251798</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>54</v>
+      </c>
+      <c r="B130">
+        <v>0.13312339782714799</v>
+      </c>
+      <c r="C130">
+        <v>0.76662296056747403</v>
+      </c>
+      <c r="D130">
+        <v>0.28602650761604298</v>
+      </c>
+      <c r="E130">
+        <v>0.55711930990219105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>55</v>
+      </c>
+      <c r="B131">
+        <v>0.115072183310985</v>
+      </c>
+      <c r="C131">
+        <v>0.79487335681915205</v>
+      </c>
+      <c r="D131">
+        <v>0.25658586621284402</v>
+      </c>
+      <c r="E131">
+        <v>0.597972571849823</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>56</v>
+      </c>
+      <c r="B132">
+        <v>0.108198411762714</v>
+      </c>
+      <c r="C132">
+        <v>0.805808246135711</v>
+      </c>
+      <c r="D132">
+        <v>0.25864005088806102</v>
+      </c>
+      <c r="E132">
+        <v>0.59692472219467096</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>57</v>
+      </c>
+      <c r="B133">
+        <v>0.11188422143459301</v>
+      </c>
+      <c r="C133">
+        <v>0.80101937055587702</v>
+      </c>
+      <c r="D133">
+        <v>0.25691938400268499</v>
+      </c>
+      <c r="E133">
+        <v>0.59719812870025601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>58</v>
+      </c>
+      <c r="B134">
+        <v>0.10086145997047399</v>
+      </c>
+      <c r="C134">
+        <v>0.81725269556045499</v>
+      </c>
+      <c r="D134">
+        <v>0.26890358328819203</v>
+      </c>
+      <c r="E134">
+        <v>0.58209258317947299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>59</v>
+      </c>
+      <c r="B135">
+        <v>9.8756469786167103E-2</v>
+      </c>
+      <c r="C135">
+        <v>0.82054030895233099</v>
+      </c>
+      <c r="D135">
+        <v>0.26393374800682001</v>
+      </c>
+      <c r="E135">
+        <v>0.58841931819915705</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>60</v>
+      </c>
+      <c r="B136">
+        <v>9.7907528281211798E-2</v>
+      </c>
+      <c r="C136">
+        <v>0.82200008630752497</v>
+      </c>
+      <c r="D136">
+        <v>0.25434306263923601</v>
+      </c>
+      <c r="E136">
+        <v>0.60242652893066395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>61</v>
+      </c>
+      <c r="B137">
+        <v>9.7949996590614305E-2</v>
+      </c>
+      <c r="C137">
+        <v>0.82179349660873402</v>
+      </c>
+      <c r="D137">
+        <v>0.257360309362411</v>
+      </c>
+      <c r="E137">
+        <v>0.59798514842987005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>62</v>
+      </c>
+      <c r="B138">
+        <v>9.4517417252063696E-2</v>
+      </c>
+      <c r="C138">
+        <v>0.82738047838211004</v>
+      </c>
+      <c r="D138">
+        <v>0.26359465718269298</v>
+      </c>
+      <c r="E138">
+        <v>0.58669334650039595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>63</v>
+      </c>
+      <c r="B139">
+        <v>9.3363456428050995E-2</v>
+      </c>
+      <c r="C139">
+        <v>0.82923316955566395</v>
+      </c>
+      <c r="D139">
+        <v>0.26314437389373702</v>
+      </c>
+      <c r="E139">
+        <v>0.59345275163650502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>64</v>
       </c>
-      <c r="B110">
+      <c r="B140">
         <v>9.6597164869308402E-2</v>
       </c>
-      <c r="C110">
+      <c r="C140">
         <v>0.82401591539382901</v>
       </c>
-      <c r="D110">
+      <c r="D140">
         <v>0.26232615113258301</v>
       </c>
-      <c r="E110">
+      <c r="E140">
         <v>0.59322041273116999</v>
       </c>
     </row>
@@ -7373,7 +7467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AAE30-9D84-2B46-8A39-7D0A9E87ADA7}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -7391,12 +7485,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7750,19 +7844,19 @@
       <c r="E17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>48</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>0.14576982999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0.74946988000000003</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>0.24781659</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>0.60994148000000004</v>
       </c>
     </row>
@@ -7808,7 +7902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E766F38-54A5-8B45-A622-04363E527776}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -7828,7 +7922,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
